--- a/2016昆山实践操作/模板/成绩册模板.xlsx
+++ b/2016昆山实践操作/模板/成绩册模板.xlsx
@@ -960,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1082,7 +1082,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
@@ -1164,9 +1164,6 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1584,35 +1581,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20.375" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="5.375" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5.375" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.375" customWidth="true" style="0"/>
+    <col min="1" max="1" width="25.125" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20.125" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="5.125" customWidth="true" style="0"/>
+    <col min="6" max="6" width="5.125" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5.125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="50">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1643,7 +1640,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="20">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -1655,7 +1652,7 @@
       <c r="D4" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -1664,7 +1661,7 @@
       <c r="G4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1700,34 +1697,34 @@
     <col min="1" max="1" width="20" customWidth="true" style="0"/>
     <col min="2" max="2" width="6" customWidth="true" style="0"/>
     <col min="3" max="3" width="8" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16" customWidth="true" style="0"/>
+    <col min="6" max="6" width="16" customWidth="true" style="0"/>
     <col min="7" max="7" width="5" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8" customWidth="true" style="0"/>
     <col min="9" max="9" width="5" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" customHeight="1" ht="50">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>8</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1761,7 +1758,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customHeight="1" ht="20">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -1773,10 +1770,10 @@
       <c r="D4" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="75" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -1785,7 +1782,7 @@
       <c r="H4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="76" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1824,31 +1821,31 @@
     <col min="2" max="2" width="7.25" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.25" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.25" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.25" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.25" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.25" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7.25" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.25" customWidth="true" style="0"/>
     <col min="8" max="8" width="6.25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="50">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1879,7 +1876,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="20">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -1891,7 +1888,7 @@
       <c r="D4" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -1900,7 +1897,7 @@
       <c r="G4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1937,31 +1934,31 @@
     <col min="2" max="2" width="7.25" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.25" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.25" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.25" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.25" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.25" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7.25" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.25" customWidth="true" style="0"/>
     <col min="8" max="8" width="6.25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="50">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1992,7 +1989,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="20">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -2004,7 +2001,7 @@
       <c r="D4" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -2013,7 +2010,7 @@
       <c r="G4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2152,7 +2149,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3335,14 +3332,14 @@
         <v>15</v>
       </c>
       <c r="S3" s="36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T3" s="36"/>
       <c r="U3" s="36">
         <v>5</v>
       </c>
       <c r="V3" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W3" s="36">
         <v>5</v>
@@ -3436,7 +3433,7 @@
         <v>5</v>
       </c>
       <c r="V4" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W4" s="36">
         <v>5</v>
@@ -3522,19 +3519,19 @@
         <v>8</v>
       </c>
       <c r="R5" s="36">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S5" s="36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T5" s="36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U5" s="36">
         <v>5</v>
       </c>
       <c r="V5" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5" s="36">
         <v>5</v>
@@ -3625,14 +3622,14 @@
         <v>15</v>
       </c>
       <c r="S6" s="36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" s="36"/>
       <c r="U6" s="36">
         <v>5</v>
       </c>
       <c r="V6" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W6" s="36">
         <v>5</v>
@@ -3719,14 +3716,14 @@
         <v>15</v>
       </c>
       <c r="S7" s="36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="36"/>
       <c r="U7" s="36">
         <v>5</v>
       </c>
       <c r="V7" s="36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W7" s="36">
         <v>5</v>
@@ -4278,31 +4275,31 @@
     <col min="2" max="2" width="7.25" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.25" customWidth="true" style="0"/>
     <col min="4" max="4" width="16.25" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.25" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.25" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.25" customWidth="true" style="0"/>
-    <col min="7" max="7" width="7.25" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.25" customWidth="true" style="0"/>
     <col min="8" max="8" width="6.25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="50">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>7</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4345,7 +4342,7 @@
       <c r="D4" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -4354,7 +4351,7 @@
       <c r="G4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="68"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/2016昆山实践操作/模板/成绩册模板.xlsx
+++ b/2016昆山实践操作/模板/成绩册模板.xlsx
@@ -333,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>名称</t>
   </si>
@@ -437,10 +437,16 @@
     <t>降序</t>
   </si>
   <si>
-    <t>一等奖 0.1 二等奖 0.2 三等奖 0.3</t>
+    <t>一等奖 0.15 二等奖 0.25 三等奖 0.40</t>
+  </si>
+  <si>
+    <t>一等奖 0.2 二等奖 0.3 三等奖 0.5</t>
   </si>
   <si>
     <t>比最高轮_得分大_用时短</t>
+  </si>
+  <si>
+    <t>一等奖 0.4 二等奖 0.6</t>
   </si>
   <si>
     <t>标题行高</t>
@@ -1581,14 +1587,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="6.125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20.125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.125" customWidth="true" style="0"/>
-    <col min="5" max="5" width="5.125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="5.125" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.125" customWidth="true" style="0"/>
-    <col min="8" max="8" width="5.125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6" customWidth="true" style="0"/>
+    <col min="3" max="3" width="30" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12" customWidth="true" style="0"/>
+    <col min="5" max="5" width="5" customWidth="true" style="0"/>
+    <col min="6" max="6" width="5" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1610,56 +1616,56 @@
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="H2" s="73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="30">
       <c r="A3" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="20">
       <c r="A4" s="74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="68"/>
     </row>
@@ -1725,65 +1731,65 @@
       <c r="G2" s="72"/>
       <c r="H2" s="72"/>
       <c r="I2" s="73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" customHeight="1" ht="30">
       <c r="A3" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" customHeight="1" ht="20">
       <c r="A4" s="74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="I4" s="76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1846,56 +1852,56 @@
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="H2" s="73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="30">
       <c r="A3" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="20">
       <c r="A4" s="74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="68"/>
     </row>
@@ -1959,56 +1965,56 @@
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="H2" s="73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="30">
       <c r="A3" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="20">
       <c r="A4" s="74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="68"/>
     </row>
@@ -2149,7 +2155,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2222,7 +2228,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" customHeight="1" ht="20">
@@ -2238,7 +2244,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>33</v>
@@ -2264,7 +2270,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" customHeight="1" ht="20">
@@ -2284,17 +2290,12 @@
         <v>33</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D3"/>
-    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D4"/>
-    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D5"/>
-    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D6"/>
-    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D7"/>
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="E3">
       <formula1>"降序,升序"</formula1>
     </dataValidation>
@@ -2310,6 +2311,11 @@
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="E7">
       <formula1>"降序,升序"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D3"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D4"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D5"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D6"/>
+    <dataValidation allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D7"/>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777778" footer="0.50902777777778"/>
@@ -2387,97 +2393,97 @@
         <v>13</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X2" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:33" customHeight="1" ht="28" s="24" customFormat="1">
@@ -2499,32 +2505,32 @@
         <v>2</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O3" s="34"/>
       <c r="P3" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="35" t="str">
         <f>SUM(R3:Y3)</f>
@@ -2551,19 +2557,19 @@
         <v>12</v>
       </c>
       <c r="Z3" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC3" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE3" s="42"/>
       <c r="AF3" s="42"/>
@@ -2587,32 +2593,32 @@
         <v>2</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J4" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O4" s="34"/>
       <c r="P4" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="35" t="str">
         <f>SUM(R4:Y4)</f>
@@ -2639,19 +2645,19 @@
         <v>10</v>
       </c>
       <c r="Z4" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB4" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC4" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD4" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE4" s="42"/>
       <c r="AF4" s="42"/>
@@ -2675,16 +2681,16 @@
         <v>3</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>14</v>
@@ -2693,17 +2699,17 @@
         <v>16</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O5" s="34"/>
       <c r="P5" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="35" t="str">
         <f>SUM(R5:Y5)</f>
@@ -2732,19 +2738,19 @@
         <v>12</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB5" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC5" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD5" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE5" s="42"/>
       <c r="AF5" s="42"/>
@@ -2768,32 +2774,32 @@
         <v>2</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="35" t="str">
         <f>SUM(R6:Y6)</f>
@@ -2820,19 +2826,19 @@
         <v>12</v>
       </c>
       <c r="Z6" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB6" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC6" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD6" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE6" s="42"/>
       <c r="AF6" s="42"/>
@@ -2856,32 +2862,32 @@
         <v>2</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="35" t="str">
         <f>SUM(R7:Y7)</f>
@@ -2908,19 +2914,19 @@
         <v>12</v>
       </c>
       <c r="Z7" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB7" s="39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC7" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD7" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AE7" s="42"/>
       <c r="AF7" s="42"/>
@@ -3182,97 +3188,97 @@
         <v>13</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R2" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S2" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC2" s="27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG2" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:33" customHeight="1" ht="28" s="24" customFormat="1">
@@ -3291,29 +3297,29 @@
         <v>20</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N3" s="35" t="str">
         <f>SUM(O3:W3)</f>
@@ -3345,26 +3351,26 @@
         <v>5</v>
       </c>
       <c r="X3" s="37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z3" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB3" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC3" s="41"/>
       <c r="AD3" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE3" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF3" s="28"/>
       <c r="AG3" s="47"/>
@@ -3385,45 +3391,45 @@
         <v>20</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4" s="34"/>
       <c r="K4" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N4" s="35" t="str">
         <f>SUM(O4:W4)</f>
         <v>0</v>
       </c>
       <c r="O4" s="36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P4" s="36">
         <v>6</v>
       </c>
       <c r="Q4" s="36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R4" s="36">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S4" s="36">
         <v>5</v>
@@ -3439,26 +3445,26 @@
         <v>5</v>
       </c>
       <c r="X4" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB4" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC4" s="41"/>
       <c r="AD4" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE4" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF4" s="28"/>
       <c r="AG4" s="47"/>
@@ -3479,31 +3485,31 @@
         <v>20</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="35" t="str">
         <f>SUM(O5:W5)</f>
@@ -3537,31 +3543,31 @@
         <v>5</v>
       </c>
       <c r="X5" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA5" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB5" s="43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC5" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="AD5" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5" s="42" t="s">
-        <v>90</v>
-      </c>
       <c r="AF5" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG5" s="47"/>
     </row>
@@ -3581,29 +3587,29 @@
         <v>20</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6" s="34"/>
       <c r="K6" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="35" t="str">
         <f>SUM(O6:W6)</f>
@@ -3635,26 +3641,26 @@
         <v>5</v>
       </c>
       <c r="X6" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z6" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB6" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC6" s="41"/>
       <c r="AD6" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE6" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF6" s="28"/>
       <c r="AG6" s="47"/>
@@ -3675,29 +3681,29 @@
         <v>20</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" s="35" t="str">
         <f>SUM(O7:W7)</f>
@@ -3729,26 +3735,26 @@
         <v>5</v>
       </c>
       <c r="X7" s="38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z7" s="39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA7" s="39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB7" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AC7" s="41"/>
       <c r="AD7" s="42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AE7" s="42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF7" s="28"/>
       <c r="AG7" s="47"/>
@@ -3975,18 +3981,18 @@
   <sheetData>
     <row r="1" spans="1:7" customHeight="1" ht="230">
       <c r="A1" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" customHeight="1" ht="407">
       <c r="A2" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" customHeight="1" ht="33">
       <c r="A3" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4020,22 +4026,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4099,7 +4105,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4110,7 +4116,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -4124,7 +4130,7 @@
     </row>
     <row r="2" spans="1:24" customHeight="1" ht="27">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -4133,84 +4139,84 @@
         <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="P2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="Q2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="R2" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="T2" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="U2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="V2" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:24" customHeight="1" ht="25">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -4221,7 +4227,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -4232,7 +4238,7 @@
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X3" s="8"/>
     </row>
@@ -4300,56 +4306,56 @@
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="H2" s="73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="30">
       <c r="A3" s="39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" customHeight="1" ht="20">
       <c r="A4" s="66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="68"/>
     </row>

--- a/2016昆山实践操作/模板/成绩册模板.xlsx
+++ b/2016昆山实践操作/模板/成绩册模板.xlsx
@@ -1672,11 +1672,11 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.2"/>
+  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
-    <oddFooter>&amp;LPage:&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;LPage:&amp;P/&amp;N&amp;RPrinted: &amp;D &amp;T</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -1795,11 +1795,11 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.2"/>
+  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
-    <oddFooter>&amp;LPage:&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;LPage:&amp;P/&amp;N&amp;RPrinted: &amp;D &amp;T</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -1908,11 +1908,11 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.2"/>
+  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
-    <oddFooter>&amp;LPage:&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;LPage:&amp;P/&amp;N&amp;RPrinted: &amp;D &amp;T</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -2021,11 +2021,11 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.2"/>
+  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
-    <oddFooter>&amp;LPage:&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;LPage:&amp;P/&amp;N&amp;RPrinted: &amp;D &amp;T</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
@@ -4362,11 +4362,11 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.2"/>
+  <pageMargins left="0.3" right="0.3" top="0.4" bottom="0.5" header="0.4" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="0" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
-    <oddFooter>&amp;LPage:&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;LPage:&amp;P/&amp;N&amp;RPrinted: &amp;D &amp;T</oddFooter>
     <evenHeader/>
     <evenFooter/>
     <firstHeader/>
